--- a/Project_Management/turn_over/工作交接表-任昭栋.xlsx
+++ b/Project_Management/turn_over/工作交接表-任昭栋.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_my\HTCZ\Project_Management\turn_over\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518F7EAF-4CA9-47CA-A926-5B874996844C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>图采</t>
   </si>
@@ -133,19 +139,18 @@
   </si>
   <si>
     <t>petalinux中断例程</t>
+  </si>
+  <si>
+    <t>工程Aurora接收部分
+有去半行功能，即使找到第一个last开始接收，现由上位机使能控制是否启用过滤半行。默认关闭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +171,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,333 +179,25 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -508,323 +205,44 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1111,26 +529,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,17 +563,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1194,7 +613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1202,7 +621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1218,12 +637,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1231,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1247,7 +666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -1271,7 +690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -1287,12 +706,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:1">
+    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -1308,7 +727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:4">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -1316,7 +735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -1324,7 +743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -1332,15 +751,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>36</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="F39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -1349,47 +771,41 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="H:\SVN\FPGA_Project\已交付\p1B\p1b_2711_in_cl_out.zip"/>
-    <hyperlink ref="C5" r:id="rId1" display="H:\SVN\FPGA_Project\已交付\p1B\p1b_2711_in_cl_out.zip"/>
-    <hyperlink ref="C6" r:id="rId2" display="H:\SVN\FPGA_Project\已交付\p1B\p1b_2711_aurora_out.zip"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Project_Management/turn_over/工作交接表-任昭栋.xlsx
+++ b/Project_Management/turn_over/工作交接表-任昭栋.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_my\HTCZ\Project_Management\turn_over\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518F7EAF-4CA9-47CA-A926-5B874996844C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>图采</t>
   </si>
@@ -30,15 +24,27 @@
     <t>项目名称</t>
   </si>
   <si>
+    <t>设备类型</t>
+  </si>
+  <si>
     <t>工程存放路径</t>
   </si>
   <si>
-    <t>董</t>
+    <t>状态</t>
   </si>
   <si>
     <t>IGSO高分</t>
   </si>
   <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>H:\SVN\FPGA_Project\已交付\IGSO_图采\IGSO_0826.zip</t>
+  </si>
+  <si>
+    <t>已交付</t>
+  </si>
+  <si>
     <t>IGSO多光谱</t>
   </si>
   <si>
@@ -48,9 +54,15 @@
     <t>H:\SVN\FPGA_Project\已交付\p1B\p1b_2711_in_cl_out.zip</t>
   </si>
   <si>
+    <t>输出行为16384</t>
+  </si>
+  <si>
     <t>点1 2711星相机图采(Camlink输出)</t>
   </si>
   <si>
+    <t>输出行为16</t>
+  </si>
+  <si>
     <t>点1 2711图采(光口输出)</t>
   </si>
   <si>
@@ -60,55 +72,115 @@
     <t>宽幅多分红外</t>
   </si>
   <si>
-    <t>赵</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H:\SVN\图采\宽幅等分\宽幅多分-红外\fpga\quickview_wide_lvds_v2.0_0228a.xpr.zip</t>
+  </si>
+  <si>
+    <t>逻辑已调试完成,待交付</t>
   </si>
   <si>
     <t>宽幅多分可见</t>
   </si>
   <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>H:\SVN\图采\宽幅等分\宽幅多分-可见\fpga\quickview_wide_2711_v2.0.zip</t>
+  </si>
+  <si>
     <t>通用图采 A  v1.0</t>
   </si>
   <si>
-    <t>张</t>
+    <t>H:\SVN\FPGA_Project\Base_FPGA\A\QuickA_0120a.zip</t>
+  </si>
+  <si>
+    <t>已调试完成</t>
   </si>
   <si>
     <t>通用图采 B1 v1.0 SDK</t>
   </si>
   <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>H:\SVN\FPGA_Project\Base_FPGA\B2711\QuickB_20200120a.xpr.zip</t>
+  </si>
+  <si>
     <t>通用图采 B2 v1.0 SDK</t>
   </si>
   <si>
+    <t>H:\SVN\FPGA_Project\Base_FPGA\BGTX\QuickB_GTX_0121a.xpr.zip</t>
+  </si>
+  <si>
     <t>其他图采SDK,在各自工程文件中</t>
   </si>
   <si>
     <t>模拟源</t>
   </si>
   <si>
-    <t>包</t>
-  </si>
-  <si>
     <t>SJ20模拟源</t>
   </si>
   <si>
-    <t>致</t>
+    <t>G:\workspace\Proj4_zedboard\s20_app.zip</t>
+  </si>
+  <si>
+    <t>G:\workspace\Proj4_zedboard\s20_zedboard_sdk.zip</t>
   </si>
   <si>
     <t>FY4模拟源</t>
   </si>
   <si>
+    <t>H:\SVN\FPGA_Project\已交付\FY4\fy4_txd_final.zip</t>
+  </si>
+  <si>
     <t>东方红模拟源</t>
   </si>
   <si>
+    <t>H:\SVN\FPGA_Project\已交付\东方红模拟源\dongfanghong-sim-final.tar.gz</t>
+  </si>
+  <si>
     <t>IGSO模拟源</t>
   </si>
   <si>
+    <t>G:\workspace\proj26_igso\igso_send_img_0110_lastver.zip</t>
+  </si>
+  <si>
     <t>DTY模拟源</t>
   </si>
   <si>
+    <t>G:\workspace\proj26_igso\dty_sim.zip</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
     <t>LD4模拟源</t>
   </si>
   <si>
-    <t>通用模拟源 （stream 版本吗？）</t>
+    <t>G:\workspace\proj32_ld4\LD4_sim.sdk.zip</t>
+  </si>
+  <si>
+    <t>G:\workspace\proj32_ld4\udp_demo_mfc.zip</t>
+  </si>
+  <si>
+    <t>通用模拟源</t>
+  </si>
+  <si>
+    <t>H:\SVN\FPGA_Project\Base_FPGA\sim\A\A_BASE_SimSource.xpr.zip</t>
+  </si>
+  <si>
+    <t>逻辑已调试完成</t>
+  </si>
+  <si>
+    <t>H:\SVN\FPGA_Project\Base_FPGA\sim\B\board_b_sim_final.zip</t>
+  </si>
+  <si>
+    <t>通用模拟源(stream)</t>
+  </si>
+  <si>
+    <t>H:\SVN\FPGA_Project\Base_FPGA\sim\A\SimSource_Base.zip</t>
   </si>
   <si>
     <t>HLS模块</t>
@@ -117,40 +189,98 @@
     <t>s2mm功能模块</t>
   </si>
   <si>
-    <t>台</t>
+    <t>G:\workspace\proj20_fy4\sim\hls_mm2s_s2mm.zip</t>
+  </si>
+  <si>
+    <t>已在交付项目中使用</t>
   </si>
   <si>
     <t>mm2s功能模块</t>
   </si>
   <si>
+    <t>在FY4模拟源工程以及东方红模拟源中使用</t>
+  </si>
+  <si>
     <t>其他项目</t>
   </si>
   <si>
     <t>物资部芯片检测</t>
   </si>
   <si>
+    <t>H:\SVN\综合电子及其他\物资部芯片检测\fpga\ChipDet_ADC9814.tar.gz</t>
+  </si>
+  <si>
+    <t>H:\SVN\综合电子及其他\物资部芯片检测\fpga\ddr_cdc_0302.zip</t>
+  </si>
+  <si>
+    <t>H:\SVN\综合电子及其他\物资部芯片检测\fpga\qchipcheck.zip</t>
+  </si>
+  <si>
     <t>王健项目</t>
   </si>
   <si>
+    <t>H:\SVN\综合电子及其他\王健项目\fpga\axu3cg_das.zip</t>
+  </si>
+  <si>
     <t>KCU1500工程</t>
   </si>
   <si>
-    <t>王</t>
+    <t>适用于FY4模拟源图采,IGSO模拟源,DTY模拟源,点1图光口接收</t>
+  </si>
+  <si>
+    <t>H:\SVN\FPGA_Project\已交付\kcu1500\kcu1500_base_final.zip</t>
   </si>
   <si>
     <t>petalinux中断例程</t>
   </si>
   <si>
-    <t>工程Aurora接收部分
-有去半行功能，即使找到第一个last开始接收，现由上位机使能控制是否启用过滤半行。默认关闭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>G:\workspace\proj14_alg_demo\petalinux_中断测试</t>
+  </si>
+  <si>
+    <t>测试完成</t>
+  </si>
+  <si>
+    <t>JPEG2000 DEMO</t>
+  </si>
+  <si>
+    <t>G:\workspace\proj1_zcu102\test_jpeg_1224bak.zip</t>
+  </si>
+  <si>
+    <t>其他物品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JTAG </t>
+  </si>
+  <si>
+    <t>05,08</t>
+  </si>
+  <si>
+    <t>书籍</t>
+  </si>
+  <si>
+    <t>Linux设备驱动程序</t>
+  </si>
+  <si>
+    <t>奔跑吧Linux内核</t>
+  </si>
+  <si>
+    <t>U盘</t>
+  </si>
+  <si>
+    <t>12号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,7 +301,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,25 +309,333 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -205,44 +643,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +985,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -529,27 +1258,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="4" max="4" width="85.375" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,253 +1289,510 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+      <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="4"/>
+      <c r="D45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="B44:B45"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId1" display="H:\SVN\FPGA_Project\已交付\p1B\p1b_2711_in_cl_out.zip"/>
+    <hyperlink ref="D5" r:id="rId1" display="H:\SVN\FPGA_Project\已交付\p1B\p1b_2711_in_cl_out.zip"/>
+    <hyperlink ref="D6" r:id="rId2" display="H:\SVN\FPGA_Project\已交付\p1B\p1b_2711_aurora_out.zip"/>
+    <hyperlink ref="D2" r:id="rId3" display="H:\SVN\FPGA_Project\已交付\IGSO_图采\IGSO_0826.zip"/>
+    <hyperlink ref="D3" r:id="rId3" display="H:\SVN\FPGA_Project\已交付\IGSO_图采\IGSO_0826.zip"/>
+    <hyperlink ref="D7" r:id="rId4" display="H:\SVN\图采\宽幅等分\宽幅多分-红外\fpga\quickview_wide_lvds_v2.0_0228a.xpr.zip"/>
+    <hyperlink ref="D9" r:id="rId5" display="H:\SVN\FPGA_Project\Base_FPGA\A\QuickA_0120a.zip"/>
+    <hyperlink ref="D10" r:id="rId6" display="H:\SVN\FPGA_Project\Base_FPGA\B2711\QuickB_20200120a.xpr.zip"/>
+    <hyperlink ref="D11" r:id="rId7" display="H:\SVN\FPGA_Project\Base_FPGA\BGTX\QuickB_GTX_0121a.xpr.zip"/>
+    <hyperlink ref="D21" r:id="rId8" display="H:\SVN\FPGA_Project\已交付\FY4\fy4_txd_final.zip"/>
+    <hyperlink ref="D45" r:id="rId9" display="H:\SVN\FPGA_Project\已交付\kcu1500\kcu1500_base_final.zip"/>
+    <hyperlink ref="D22" r:id="rId10" display="H:\SVN\FPGA_Project\已交付\东方红模拟源\dongfanghong-sim-final.tar.gz"/>
+    <hyperlink ref="D8" r:id="rId11" display="H:\SVN\图采\宽幅等分\宽幅多分-可见\fpga\quickview_wide_2711_v2.0.zip"/>
+    <hyperlink ref="D19" r:id="rId12" display="G:\workspace\Proj4_zedboard\s20_app.zip"/>
+    <hyperlink ref="D20" r:id="rId13" display="G:\workspace\Proj4_zedboard\s20_zedboard_sdk.zip"/>
+    <hyperlink ref="D23" r:id="rId14" display="G:\workspace\proj26_igso\igso_send_img_0110_lastver.zip"/>
+    <hyperlink ref="D24" r:id="rId15" display="G:\workspace\proj26_igso\dty_sim.zip"/>
+    <hyperlink ref="D26" r:id="rId16" display="G:\workspace\proj32_ld4\udp_demo_mfc.zip"/>
+    <hyperlink ref="D25" r:id="rId17" display="G:\workspace\proj32_ld4\LD4_sim.sdk.zip"/>
+    <hyperlink ref="D32:D33" r:id="rId18" display="G:\workspace\proj20_fy4\sim\hls_mm2s_s2mm.zip"/>
+    <hyperlink ref="D27" r:id="rId19" display="H:\SVN\FPGA_Project\Base_FPGA\sim\A\A_BASE_SimSource.xpr.zip"/>
+    <hyperlink ref="D28" r:id="rId20" display="H:\SVN\FPGA_Project\Base_FPGA\sim\B\board_b_sim_final.zip"/>
+    <hyperlink ref="D29" r:id="rId21" display="H:\SVN\FPGA_Project\Base_FPGA\sim\A\SimSource_Base.zip"/>
+    <hyperlink ref="D43" r:id="rId22" display="H:\SVN\综合电子及其他\王健项目\fpga\axu3cg_das.zip"/>
+    <hyperlink ref="D40" r:id="rId23" display="H:\SVN\综合电子及其他\物资部芯片检测\fpga\ChipDet_ADC9814.tar.gz"/>
+    <hyperlink ref="D41" r:id="rId24" display="H:\SVN\综合电子及其他\物资部芯片检测\fpga\ddr_cdc_0302.zip"/>
+    <hyperlink ref="D42" r:id="rId25" display="H:\SVN\综合电子及其他\物资部芯片检测\fpga\qchipcheck.zip"/>
+    <hyperlink ref="D46" r:id="rId26" display="G:\workspace\proj14_alg_demo\petalinux_中断测试"/>
+    <hyperlink ref="D47" r:id="rId27" display="G:\workspace\proj1_zcu102\test_jpeg_1224bak.zip"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>